--- a/checkout.xlsx
+++ b/checkout.xlsx
@@ -173,9 +173,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,16 +186,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -274,16 +288,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -308,7 +322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -316,7 +330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -328,7 +342,7 @@
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -336,7 +350,7 @@
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -344,11 +358,11 @@
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
@@ -360,11 +374,11 @@
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
@@ -372,7 +386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -384,7 +398,7 @@
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -392,7 +406,7 @@
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -400,9 +414,57 @@
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
